--- a/Benchmarks-results/Prometheus/całka NOWE/całka 2 GPU.xlsx
+++ b/Benchmarks-results/Prometheus/całka NOWE/całka 2 GPU.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>1 GPU LOCAL SIZE 1024</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>GWS 524288</t>
+  </si>
+  <si>
+    <t>min 1</t>
+  </si>
+  <si>
+    <t>max 1</t>
+  </si>
+  <si>
+    <t>min 2</t>
+  </si>
+  <si>
+    <t>max 2</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
   <dimension ref="C2:CK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C25" sqref="C25:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,7 +753,7 @@
         <v>714.21926897737501</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I20" si="2">SUM(G6,H6)</f>
+        <f t="shared" ref="I6:I19" si="2">SUM(G6,H6)</f>
         <v>1432.11534242825</v>
       </c>
       <c r="J6" s="2"/>
@@ -940,7 +952,7 @@
     </row>
     <row r="7" spans="3:89">
       <c r="C7">
-        <f t="shared" ref="C7:D22" si="3">2*C6</f>
+        <f t="shared" ref="C7:C20" si="3">2*C6</f>
         <v>4096</v>
       </c>
       <c r="D7" s="3">
@@ -2737,6 +2749,21 @@
       </c>
     </row>
     <row r="25" spans="3:89">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
       <c r="K25" s="2">
         <v>0.65385416666666674</v>
       </c>
@@ -2763,6 +2790,25 @@
       </c>
     </row>
     <row r="26" spans="3:89">
+      <c r="C26">
+        <v>1024</v>
+      </c>
+      <c r="D26">
+        <f>MIN(N15,N13,N11,N9,N7,N5,N17,N19,N21,N23,N25,N27,N29,N31,N33,N35)</f>
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <f>MAX(N15,N13,N11,N9,N7,N5,N17,N19,N21,N23,N25,N27,N29,N31,N33,N35)</f>
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <f>MIN(N6,N8,N10,N12,N14,N16,N18,N20,N22,N24,N26,N28,N30,N32,N34,N36)</f>
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <f>MAX(N6,N8,N10,N12,N14,N16,N18,N20,N22,N24,N26,N28,N30,N32,N34,N36)</f>
+        <v>41</v>
+      </c>
       <c r="K26" s="2">
         <v>0.65385416666666674</v>
       </c>
@@ -2789,6 +2835,26 @@
       </c>
     </row>
     <row r="27" spans="3:89">
+      <c r="C27">
+        <f>2*C26</f>
+        <v>2048</v>
+      </c>
+      <c r="D27">
+        <f>MIN(S5,S7,S9,S11,S13,S15,S17,S19)</f>
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <f>MAX(S5,S7,S9,S11,S13,S15,S17,S19)</f>
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <f>MIN(S6,S8,S10,S12,S14,S16,S18,S20)</f>
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <f>MAX(S6,S8,S10,S12,S14,S16,S18,S20)</f>
+        <v>40</v>
+      </c>
       <c r="K27" s="2">
         <v>0.65386574074074078</v>
       </c>
@@ -2815,6 +2881,26 @@
       </c>
     </row>
     <row r="28" spans="3:89">
+      <c r="C28">
+        <f t="shared" ref="C28:C33" si="4">2*C27</f>
+        <v>4096</v>
+      </c>
+      <c r="D28">
+        <f>MIN(X5,X7,X9,X11)</f>
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <f>MAX(X5,X7,X9,X11)</f>
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <f>MIN(X5,X7,X9,X11)</f>
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <f>MAX(X5,X7,X9,X11)</f>
+        <v>40</v>
+      </c>
       <c r="K28" s="2">
         <v>0.65386574074074078</v>
       </c>
@@ -2841,6 +2927,26 @@
       </c>
     </row>
     <row r="29" spans="3:89">
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>8192</v>
+      </c>
+      <c r="D29">
+        <f>MIN(AC5,AC7,AC9)</f>
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <f>MAX(AC5,AC7,AC9)</f>
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <f>MIN(AC6,AC8,AC10)</f>
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <f>MAX(AC6,AC8,AC10)</f>
+        <v>41</v>
+      </c>
       <c r="K29" s="2">
         <v>0.65387731481481481</v>
       </c>
@@ -2855,6 +2961,26 @@
       </c>
     </row>
     <row r="30" spans="3:89">
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="D30">
+        <f>MIN(AH5,AH7,AH9)</f>
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <f>MAX(AH5,AH7,AH9)</f>
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <f>MIN(AH6,AH7,AH10)</f>
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <f>MAX(AH6,AH7,AH10)</f>
+        <v>41</v>
+      </c>
       <c r="K30" s="2">
         <v>0.65387731481481481</v>
       </c>
@@ -2869,6 +2995,10 @@
       </c>
     </row>
     <row r="31" spans="3:89">
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>32768</v>
+      </c>
       <c r="K31" s="2">
         <v>0.65388888888888885</v>
       </c>
@@ -2883,6 +3013,10 @@
       </c>
     </row>
     <row r="32" spans="3:89">
+      <c r="C32">
+        <f>2*C31</f>
+        <v>65536</v>
+      </c>
       <c r="K32" s="2">
         <v>0.65388888888888885</v>
       </c>
@@ -2896,7 +3030,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="11:14">
+    <row r="33" spans="3:14">
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
       <c r="K33" s="2">
         <v>0.65390046296296289</v>
       </c>
@@ -2910,7 +3048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="11:14">
+    <row r="34" spans="3:14">
       <c r="K34" s="2">
         <v>0.65390046296296289</v>
       </c>
@@ -2924,7 +3062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="11:14">
+    <row r="35" spans="3:14">
       <c r="K35" s="2">
         <v>0.65391203703703704</v>
       </c>
@@ -2938,7 +3076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="11:14">
+    <row r="36" spans="3:14">
       <c r="K36" s="2">
         <v>0.65391203703703704</v>
       </c>
